--- a/week-1/Solutions/1-3-B-string-and-date-functions/date-functions-pulse-check-solutions.xlsx
+++ b/week-1/Solutions/1-3-B-string-and-date-functions/date-functions-pulse-check-solutions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analytics-lectures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Setup\Documents\GitHub\data-analytics-lectures\week-1\Solutions\1-3-B-string-and-date-functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -394,7 +394,7 @@
       </c>
       <c r="B6" s="3">
         <f ca="1">TODAY()-"7/20/1969"</f>
-        <v>18334</v>
+        <v>18349</v>
       </c>
       <c r="C6" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B6)</f>
@@ -404,7 +404,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <f ca="1">_xlfn.DAYS(TODAY(), B4)</f>
-        <v>18334</v>
+        <v>18349</v>
       </c>
       <c r="C7" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B7)</f>
